--- a/phenotype0422.xlsx
+++ b/phenotype0422.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\UKBioCoin\UKBioCoin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CAB2FFB-55D2-4A26-A1AE-9A27A1572E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12950E1-B1E5-4FCF-86E9-3624DB00AFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="description of phenotype0422" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="478">
   <si>
     <t>Path</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>type</t>
-  </si>
-  <si>
-    <t>missing_rate</t>
   </si>
   <si>
     <t>Population characteristics &gt; Baseline characteristics</t>
@@ -1462,7 +1459,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2407,19 +2404,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q130"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="17" max="17" width="9" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2468,13 +2462,10 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>17</v>
       </c>
       <c r="B2">
         <v>100094</v>
@@ -2483,7 +2474,7 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>502506</v>
@@ -2492,36 +2483,33 @@
         <v>502506</v>
       </c>
       <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
         <v>24</v>
       </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2">
-        <v>0.99876464200000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>100094</v>
@@ -2530,7 +2518,7 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>502506</v>
@@ -2539,39 +2527,36 @@
         <v>502506</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
         <v>29</v>
       </c>
-      <c r="O3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3">
-        <v>0.85433384800000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>100094</v>
@@ -2580,7 +2565,7 @@
         <v>21022</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>502506</v>
@@ -2589,39 +2574,36 @@
         <v>502506</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
         <v>27</v>
       </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
         <v>33</v>
       </c>
-      <c r="O4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4">
-        <v>0.85433384800000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>100094</v>
@@ -2630,7 +2612,7 @@
         <v>189</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>501883</v>
@@ -2639,36 +2621,33 @@
         <v>501883</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" t="s">
         <v>37</v>
       </c>
-      <c r="O5" t="s">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>38</v>
-      </c>
-      <c r="Q5">
-        <v>0.85433384800000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>39</v>
       </c>
       <c r="B6">
         <v>76</v>
@@ -2677,7 +2656,7 @@
         <v>26410</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6">
         <v>432733</v>
@@ -2686,36 +2665,33 @@
         <v>432733</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
       <c r="N6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" t="s">
         <v>41</v>
       </c>
-      <c r="O6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6">
-        <v>0.85433384800000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>76</v>
@@ -2724,7 +2700,7 @@
         <v>26411</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7">
         <v>432733</v>
@@ -2733,36 +2709,33 @@
         <v>432733</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M7">
         <v>1</v>
       </c>
       <c r="N7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" t="s">
         <v>44</v>
       </c>
-      <c r="O7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q7">
-        <v>0.85433384800000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8">
         <v>76</v>
@@ -2771,7 +2744,7 @@
         <v>26412</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8">
         <v>432733</v>
@@ -2780,36 +2753,33 @@
         <v>432733</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
       <c r="N8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" t="s">
         <v>47</v>
       </c>
-      <c r="O8" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8">
-        <v>0.85433384800000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>76</v>
@@ -2818,7 +2788,7 @@
         <v>26413</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9">
         <v>432733</v>
@@ -2827,36 +2797,33 @@
         <v>432733</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
       <c r="N9" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" t="s">
         <v>50</v>
       </c>
-      <c r="O9" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q9">
-        <v>0.85433384800000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10">
         <v>76</v>
@@ -2865,7 +2832,7 @@
         <v>26414</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10">
         <v>432733</v>
@@ -2874,36 +2841,33 @@
         <v>432733</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M10">
         <v>1</v>
       </c>
       <c r="N10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" t="s">
         <v>53</v>
       </c>
-      <c r="O10" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q10">
-        <v>0.85433384800000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11">
         <v>76</v>
@@ -2912,7 +2876,7 @@
         <v>26415</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>432733</v>
@@ -2921,36 +2885,33 @@
         <v>432733</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
       <c r="N11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" t="s">
         <v>56</v>
       </c>
-      <c r="O11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q11">
-        <v>0.99830266599999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12">
         <v>76</v>
@@ -2959,7 +2920,7 @@
         <v>26416</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12">
         <v>432733</v>
@@ -2968,36 +2929,33 @@
         <v>432733</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
       <c r="N12" t="s">
+        <v>58</v>
+      </c>
+      <c r="O12" t="s">
         <v>59</v>
       </c>
-      <c r="O12" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q12">
-        <v>0.99817604999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <v>76</v>
@@ -3006,7 +2964,7 @@
         <v>26417</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13">
         <v>432733</v>
@@ -3015,36 +2973,33 @@
         <v>432733</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13" t="s">
+        <v>61</v>
+      </c>
+      <c r="O13" t="s">
         <v>62</v>
       </c>
-      <c r="O13" t="s">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>63</v>
-      </c>
-      <c r="Q13">
-        <v>0.99782358000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>64</v>
       </c>
       <c r="B14">
         <v>100010</v>
@@ -3053,7 +3008,7 @@
         <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14">
         <v>500408</v>
@@ -3062,39 +3017,36 @@
         <v>569829</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>64</v>
+      </c>
+      <c r="O14" t="s">
         <v>66</v>
       </c>
-      <c r="J14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14">
-        <v>4</v>
-      </c>
-      <c r="N14" t="s">
-        <v>65</v>
-      </c>
-      <c r="O14" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q14">
-        <v>0.99712548300000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15">
         <v>100010</v>
@@ -3103,7 +3055,7 @@
         <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15">
         <v>500346</v>
@@ -3112,39 +3064,36 @@
         <v>569767</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M15">
         <v>4</v>
       </c>
       <c r="N15" t="s">
+        <v>67</v>
+      </c>
+      <c r="O15" t="s">
         <v>68</v>
       </c>
-      <c r="O15" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q15">
-        <v>0.99677301200000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16">
         <v>100010</v>
@@ -3153,7 +3102,7 @@
         <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16">
         <v>500043</v>
@@ -3162,39 +3111,36 @@
         <v>569401</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M16">
         <v>4</v>
       </c>
       <c r="N16" t="s">
+        <v>70</v>
+      </c>
+      <c r="O16" t="s">
         <v>71</v>
       </c>
-      <c r="O16" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q16">
-        <v>0.99685856299999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17">
         <v>100010</v>
@@ -3203,7 +3149,7 @@
         <v>21002</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E17">
         <v>499822</v>
@@ -3212,39 +3158,36 @@
         <v>569107</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
         <v>74</v>
       </c>
-      <c r="J17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17">
-        <v>4</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>75</v>
       </c>
-      <c r="O17" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q17">
-        <v>0.99685856299999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18">
         <v>100010</v>
@@ -3253,7 +3196,7 @@
         <v>21001</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18">
         <v>499506</v>
@@ -3262,39 +3205,36 @@
         <v>568679</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
         <v>78</v>
       </c>
-      <c r="J18" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18">
-        <v>4</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>79</v>
       </c>
-      <c r="O18" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q18">
-        <v>0.98247571199999995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19">
         <v>100010</v>
@@ -3303,7 +3243,7 @@
         <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19">
         <v>497178</v>
@@ -3312,39 +3252,36 @@
         <v>565500</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M19">
         <v>4</v>
       </c>
       <c r="N19" t="s">
+        <v>81</v>
+      </c>
+      <c r="O19" t="s">
         <v>82</v>
       </c>
-      <c r="O19" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q19">
-        <v>0.98186658800000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20">
         <v>100010</v>
@@ -3353,7 +3290,7 @@
         <v>3077</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20">
         <v>497178</v>
@@ -3362,39 +3299,36 @@
         <v>565500</v>
       </c>
       <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" t="s">
         <v>19</v>
       </c>
-      <c r="H20" t="s">
-        <v>20</v>
-      </c>
       <c r="J20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M20">
         <v>4</v>
       </c>
       <c r="N20" t="s">
+        <v>84</v>
+      </c>
+      <c r="O20" t="s">
         <v>85</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>86</v>
       </c>
-      <c r="P20" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q20">
-        <v>0.98079206600000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21">
         <v>100010</v>
@@ -3403,7 +3337,7 @@
         <v>20015</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E21">
         <v>497178</v>
@@ -3412,39 +3346,36 @@
         <v>565500</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M21">
         <v>4</v>
       </c>
       <c r="N21" t="s">
+        <v>88</v>
+      </c>
+      <c r="O21" t="s">
         <v>89</v>
       </c>
-      <c r="O21" t="s">
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>90</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>91</v>
       </c>
       <c r="B22">
         <v>100009</v>
@@ -3453,7 +3384,7 @@
         <v>23102</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E22">
         <v>493079</v>
@@ -3462,39 +3393,36 @@
         <v>560410</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M22">
         <v>4</v>
       </c>
       <c r="N22" t="s">
+        <v>92</v>
+      </c>
+      <c r="O22" t="s">
         <v>93</v>
       </c>
-      <c r="O22" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23">
         <v>100009</v>
@@ -3503,7 +3431,7 @@
         <v>23099</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E23">
         <v>492828</v>
@@ -3512,39 +3440,36 @@
         <v>560112</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I23" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
         <v>96</v>
       </c>
-      <c r="J23" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" t="s">
-        <v>32</v>
-      </c>
-      <c r="L23" t="s">
-        <v>23</v>
-      </c>
-      <c r="M23">
-        <v>4</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>97</v>
       </c>
-      <c r="O23" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q23">
-        <v>0.93420435800000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B24">
         <v>100009</v>
@@ -3553,7 +3478,7 @@
         <v>23100</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E24">
         <v>492298</v>
@@ -3562,39 +3487,36 @@
         <v>559505</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M24">
         <v>4</v>
       </c>
       <c r="N24" t="s">
+        <v>99</v>
+      </c>
+      <c r="O24" t="s">
         <v>100</v>
       </c>
-      <c r="O24" t="s">
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>101</v>
-      </c>
-      <c r="Q24">
-        <v>0.93420435800000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>102</v>
       </c>
       <c r="B25">
         <v>100011</v>
@@ -3603,7 +3525,7 @@
         <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E25">
         <v>475129</v>
@@ -3612,39 +3534,36 @@
         <v>1050361</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I25" t="s">
+        <v>103</v>
+      </c>
+      <c r="J25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
         <v>104</v>
       </c>
-      <c r="J25" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" t="s">
-        <v>23</v>
-      </c>
-      <c r="M25">
-        <v>4</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>105</v>
       </c>
-      <c r="O25" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q25">
-        <v>0.93419066900000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B26">
         <v>100011</v>
@@ -3653,7 +3572,7 @@
         <v>4079</v>
       </c>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E26">
         <v>475129</v>
@@ -3662,39 +3581,36 @@
         <v>1050361</v>
       </c>
       <c r="G26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I26" t="s">
+        <v>107</v>
+      </c>
+      <c r="J26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
         <v>108</v>
       </c>
-      <c r="J26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M26">
-        <v>4</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>109</v>
       </c>
-      <c r="O26" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q26">
-        <v>0.99604753899999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B27">
         <v>100011</v>
@@ -3703,7 +3619,7 @@
         <v>4080</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E27">
         <v>475124</v>
@@ -3712,39 +3628,36 @@
         <v>1050331</v>
       </c>
       <c r="G27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M27">
         <v>4</v>
       </c>
       <c r="N27" t="s">
+        <v>111</v>
+      </c>
+      <c r="O27" t="s">
         <v>112</v>
       </c>
-      <c r="O27" t="s">
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>113</v>
-      </c>
-      <c r="Q27">
-        <v>0.99601331900000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>114</v>
       </c>
       <c r="B28">
         <v>100019</v>
@@ -3753,7 +3666,7 @@
         <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E28">
         <v>499341</v>
@@ -3762,39 +3675,36 @@
         <v>568338</v>
       </c>
       <c r="G28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M28">
         <v>4</v>
       </c>
       <c r="N28" t="s">
+        <v>115</v>
+      </c>
+      <c r="O28" t="s">
         <v>116</v>
       </c>
-      <c r="O28" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B29">
         <v>100019</v>
@@ -3803,7 +3713,7 @@
         <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E29">
         <v>499266</v>
@@ -3812,39 +3722,36 @@
         <v>568255</v>
       </c>
       <c r="G29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M29">
         <v>4</v>
       </c>
       <c r="N29" t="s">
+        <v>118</v>
+      </c>
+      <c r="O29" t="s">
         <v>119</v>
       </c>
-      <c r="O29" t="s">
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>120</v>
-      </c>
-      <c r="Q29">
-        <v>0.98344757299999996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>121</v>
       </c>
       <c r="B30">
         <v>100024</v>
@@ -3853,7 +3760,7 @@
         <v>21003</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E30">
         <v>502506</v>
@@ -3862,39 +3769,36 @@
         <v>573525</v>
       </c>
       <c r="G30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" t="s">
         <v>27</v>
       </c>
-      <c r="I30" t="s">
-        <v>28</v>
-      </c>
       <c r="J30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M30">
         <v>4</v>
       </c>
       <c r="N30" t="s">
+        <v>122</v>
+      </c>
+      <c r="O30" t="s">
         <v>123</v>
       </c>
-      <c r="O30" t="s">
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>124</v>
-      </c>
-      <c r="Q30">
-        <v>0.98360156499999996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>125</v>
       </c>
       <c r="B31">
         <v>100033</v>
@@ -3903,7 +3807,7 @@
         <v>1767</v>
       </c>
       <c r="D31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E31">
         <v>501623</v>
@@ -3912,39 +3816,36 @@
         <v>572249</v>
       </c>
       <c r="G31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" t="s">
         <v>19</v>
       </c>
-      <c r="H31" t="s">
-        <v>20</v>
-      </c>
       <c r="J31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M31">
         <v>4</v>
       </c>
       <c r="N31" t="s">
+        <v>126</v>
+      </c>
+      <c r="O31" t="s">
         <v>127</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>128</v>
       </c>
-      <c r="P31" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q31">
-        <v>0.86178363800000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B32">
         <v>100033</v>
@@ -3953,7 +3854,7 @@
         <v>1677</v>
       </c>
       <c r="D32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E32">
         <v>501614</v>
@@ -3962,39 +3863,36 @@
         <v>533614</v>
       </c>
       <c r="G32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" t="s">
         <v>19</v>
       </c>
-      <c r="H32" t="s">
-        <v>20</v>
-      </c>
       <c r="J32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M32">
         <v>3</v>
       </c>
       <c r="N32" t="s">
+        <v>130</v>
+      </c>
+      <c r="O32" t="s">
         <v>131</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>132</v>
       </c>
-      <c r="P32" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q32">
-        <v>0.97128904999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B33">
         <v>100033</v>
@@ -4003,7 +3901,7 @@
         <v>1777</v>
       </c>
       <c r="D33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E33">
         <v>494270</v>
@@ -4012,39 +3910,36 @@
         <v>525799</v>
       </c>
       <c r="G33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" t="s">
         <v>19</v>
       </c>
-      <c r="H33" t="s">
-        <v>20</v>
-      </c>
       <c r="J33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M33">
         <v>3</v>
       </c>
       <c r="N33" t="s">
+        <v>134</v>
+      </c>
+      <c r="O33" t="s">
         <v>135</v>
       </c>
-      <c r="O33" t="s">
-        <v>136</v>
-      </c>
       <c r="P33" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q33">
-        <v>0.94146251299999995</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B34">
         <v>100033</v>
@@ -4053,7 +3948,7 @@
         <v>1787</v>
       </c>
       <c r="D34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E34">
         <v>494270</v>
@@ -4062,39 +3957,36 @@
         <v>525799</v>
       </c>
       <c r="G34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" t="s">
         <v>19</v>
       </c>
-      <c r="H34" t="s">
-        <v>20</v>
-      </c>
       <c r="J34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M34">
         <v>3</v>
       </c>
       <c r="N34" t="s">
+        <v>137</v>
+      </c>
+      <c r="O34" t="s">
         <v>138</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>139</v>
-      </c>
-      <c r="P34" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q34">
-        <v>0.96480769799999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>140</v>
       </c>
       <c r="B35">
         <v>100034</v>
@@ -4103,7 +3995,7 @@
         <v>1797</v>
       </c>
       <c r="D35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E35">
         <v>494294</v>
@@ -4112,39 +4004,36 @@
         <v>563954</v>
       </c>
       <c r="G35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" t="s">
         <v>19</v>
       </c>
-      <c r="H35" t="s">
-        <v>20</v>
-      </c>
       <c r="J35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M35">
         <v>4</v>
       </c>
       <c r="N35" t="s">
+        <v>141</v>
+      </c>
+      <c r="O35" t="s">
         <v>142</v>
       </c>
-      <c r="O35" t="s">
-        <v>143</v>
-      </c>
       <c r="P35" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q35">
-        <v>0.96739476400000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B36">
         <v>100034</v>
@@ -4153,7 +4042,7 @@
         <v>1835</v>
       </c>
       <c r="D36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E36">
         <v>494294</v>
@@ -4162,39 +4051,36 @@
         <v>563954</v>
       </c>
       <c r="G36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" t="s">
         <v>19</v>
       </c>
-      <c r="H36" t="s">
-        <v>20</v>
-      </c>
       <c r="J36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M36">
         <v>4</v>
       </c>
       <c r="N36" t="s">
+        <v>144</v>
+      </c>
+      <c r="O36" t="s">
         <v>145</v>
       </c>
-      <c r="O36" t="s">
-        <v>146</v>
-      </c>
       <c r="P36" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q36">
-        <v>0.92268917900000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B37">
         <v>100034</v>
@@ -4203,7 +4089,7 @@
         <v>1873</v>
       </c>
       <c r="D37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E37">
         <v>494291</v>
@@ -4212,39 +4098,36 @@
         <v>563951</v>
       </c>
       <c r="G37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M37">
         <v>4</v>
       </c>
       <c r="N37" t="s">
+        <v>147</v>
+      </c>
+      <c r="O37" t="s">
         <v>148</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>149</v>
       </c>
-      <c r="P37" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q37">
-        <v>0.95591722800000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B38">
         <v>100034</v>
@@ -4253,7 +4136,7 @@
         <v>1883</v>
       </c>
       <c r="D38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E38">
         <v>494291</v>
@@ -4262,39 +4145,36 @@
         <v>563951</v>
       </c>
       <c r="G38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M38">
         <v>4</v>
       </c>
       <c r="N38" t="s">
+        <v>151</v>
+      </c>
+      <c r="O38" t="s">
         <v>152</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>153</v>
-      </c>
-      <c r="P38" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q38">
-        <v>0.97784568599999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>154</v>
       </c>
       <c r="B39">
         <v>100037</v>
@@ -4303,7 +4183,7 @@
         <v>2316</v>
       </c>
       <c r="D39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E39">
         <v>501602</v>
@@ -4312,39 +4192,36 @@
         <v>572228</v>
       </c>
       <c r="G39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" t="s">
         <v>19</v>
       </c>
-      <c r="H39" t="s">
-        <v>20</v>
-      </c>
       <c r="J39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M39">
         <v>4</v>
       </c>
       <c r="N39" t="s">
+        <v>155</v>
+      </c>
+      <c r="O39" t="s">
         <v>156</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>157</v>
-      </c>
-      <c r="P39" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q39">
-        <v>0.98397456699999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>158</v>
       </c>
       <c r="B40">
         <v>100039</v>
@@ -4353,7 +4230,7 @@
         <v>2335</v>
       </c>
       <c r="D40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E40">
         <v>501600</v>
@@ -4362,39 +4239,36 @@
         <v>572226</v>
       </c>
       <c r="G40" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" t="s">
         <v>19</v>
       </c>
-      <c r="H40" t="s">
-        <v>20</v>
-      </c>
       <c r="J40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M40">
         <v>4</v>
       </c>
       <c r="N40" t="s">
+        <v>159</v>
+      </c>
+      <c r="O40" t="s">
         <v>160</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>161</v>
-      </c>
-      <c r="P40" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q40">
-        <v>0.95356286099999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>162</v>
       </c>
       <c r="B41">
         <v>100041</v>
@@ -4403,7 +4277,7 @@
         <v>2207</v>
       </c>
       <c r="D41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E41">
         <v>501605</v>
@@ -4412,39 +4286,36 @@
         <v>572231</v>
       </c>
       <c r="G41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" t="s">
         <v>19</v>
       </c>
-      <c r="H41" t="s">
-        <v>20</v>
-      </c>
       <c r="J41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M41">
         <v>4</v>
       </c>
       <c r="N41" t="s">
+        <v>163</v>
+      </c>
+      <c r="O41" t="s">
         <v>164</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>165</v>
       </c>
-      <c r="P41" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q41">
-        <v>0.95442179400000005</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B42">
         <v>100041</v>
@@ -4453,7 +4324,7 @@
         <v>2227</v>
       </c>
       <c r="D42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E42">
         <v>501604</v>
@@ -4462,39 +4333,36 @@
         <v>572230</v>
       </c>
       <c r="G42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" t="s">
         <v>19</v>
       </c>
-      <c r="H42" t="s">
-        <v>20</v>
-      </c>
       <c r="J42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M42">
         <v>4</v>
       </c>
       <c r="N42" t="s">
+        <v>167</v>
+      </c>
+      <c r="O42" t="s">
         <v>168</v>
       </c>
-      <c r="O42" t="s">
-        <v>169</v>
-      </c>
       <c r="P42" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q42">
-        <v>0.94629443999999996</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B43">
         <v>100041</v>
@@ -4503,7 +4371,7 @@
         <v>2217</v>
       </c>
       <c r="D43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E43">
         <v>445516</v>
@@ -4512,39 +4380,36 @@
         <v>506507</v>
       </c>
       <c r="G43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M43">
         <v>4</v>
       </c>
       <c r="N43" t="s">
+        <v>170</v>
+      </c>
+      <c r="O43" t="s">
         <v>171</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>172</v>
-      </c>
-      <c r="P43" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q43">
-        <v>0.66436249000000003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>173</v>
       </c>
       <c r="B44">
         <v>100042</v>
@@ -4553,7 +4418,7 @@
         <v>2178</v>
       </c>
       <c r="D44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E44">
         <v>501605</v>
@@ -4562,39 +4427,36 @@
         <v>572231</v>
       </c>
       <c r="G44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" t="s">
         <v>19</v>
       </c>
-      <c r="H44" t="s">
-        <v>20</v>
-      </c>
       <c r="J44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M44">
         <v>4</v>
       </c>
       <c r="N44" t="s">
+        <v>174</v>
+      </c>
+      <c r="O44" t="s">
         <v>175</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>176</v>
       </c>
-      <c r="P44" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q44">
-        <v>0.77658500500000005</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B45">
         <v>100042</v>
@@ -4603,7 +4465,7 @@
         <v>2188</v>
       </c>
       <c r="D45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E45">
         <v>501605</v>
@@ -4612,39 +4474,36 @@
         <v>572231</v>
       </c>
       <c r="G45" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" t="s">
         <v>19</v>
       </c>
-      <c r="H45" t="s">
-        <v>20</v>
-      </c>
       <c r="J45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M45">
         <v>4</v>
       </c>
       <c r="N45" t="s">
+        <v>178</v>
+      </c>
+      <c r="O45" t="s">
         <v>179</v>
       </c>
-      <c r="O45" t="s">
-        <v>180</v>
-      </c>
       <c r="P45" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q45">
-        <v>0.85670874600000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B46">
         <v>100042</v>
@@ -4653,7 +4512,7 @@
         <v>2296</v>
       </c>
       <c r="D46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E46">
         <v>501604</v>
@@ -4662,39 +4521,36 @@
         <v>572230</v>
       </c>
       <c r="G46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" t="s">
         <v>19</v>
       </c>
-      <c r="H46" t="s">
-        <v>20</v>
-      </c>
       <c r="J46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M46">
         <v>4</v>
       </c>
       <c r="N46" t="s">
+        <v>181</v>
+      </c>
+      <c r="O46" t="s">
         <v>182</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>183</v>
       </c>
-      <c r="P46" t="s">
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>184</v>
-      </c>
-      <c r="Q46">
-        <v>0.88199765200000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>185</v>
       </c>
       <c r="B47">
         <v>100043</v>
@@ -4703,7 +4559,7 @@
         <v>2257</v>
       </c>
       <c r="D47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E47">
         <v>501474</v>
@@ -4712,39 +4568,36 @@
         <v>572086</v>
       </c>
       <c r="G47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" t="s">
         <v>19</v>
       </c>
-      <c r="H47" t="s">
-        <v>20</v>
-      </c>
       <c r="J47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M47">
         <v>4</v>
       </c>
       <c r="N47" t="s">
+        <v>186</v>
+      </c>
+      <c r="O47" t="s">
         <v>187</v>
       </c>
-      <c r="O47" t="s">
-        <v>188</v>
-      </c>
       <c r="P47" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q47">
-        <v>0.82307005300000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B48">
         <v>100043</v>
@@ -4753,7 +4606,7 @@
         <v>2247</v>
       </c>
       <c r="D48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E48">
         <v>498717</v>
@@ -4762,39 +4615,36 @@
         <v>568460</v>
       </c>
       <c r="G48" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" t="s">
         <v>19</v>
       </c>
-      <c r="H48" t="s">
-        <v>20</v>
-      </c>
       <c r="J48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M48">
         <v>4</v>
       </c>
       <c r="N48" t="s">
+        <v>189</v>
+      </c>
+      <c r="O48" t="s">
         <v>190</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>191</v>
       </c>
-      <c r="P48" t="s">
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>192</v>
-      </c>
-      <c r="Q48">
-        <v>0.99471636399999996</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>193</v>
       </c>
       <c r="B49">
         <v>100044</v>
@@ -4803,7 +4653,7 @@
         <v>2443</v>
       </c>
       <c r="D49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E49">
         <v>501592</v>
@@ -4812,39 +4662,36 @@
         <v>572218</v>
       </c>
       <c r="G49" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" t="s">
         <v>19</v>
       </c>
-      <c r="H49" t="s">
-        <v>20</v>
-      </c>
       <c r="J49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M49">
         <v>4</v>
       </c>
       <c r="N49" t="s">
+        <v>194</v>
+      </c>
+      <c r="O49" t="s">
         <v>195</v>
       </c>
-      <c r="O49" t="s">
-        <v>196</v>
-      </c>
       <c r="P49" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q49">
-        <v>0.90694777599999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B50">
         <v>100044</v>
@@ -4853,7 +4700,7 @@
         <v>2453</v>
       </c>
       <c r="D50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E50">
         <v>501592</v>
@@ -4862,39 +4709,36 @@
         <v>572218</v>
       </c>
       <c r="G50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" t="s">
         <v>19</v>
       </c>
-      <c r="H50" t="s">
-        <v>20</v>
-      </c>
       <c r="J50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M50">
         <v>4</v>
       </c>
       <c r="N50" t="s">
+        <v>197</v>
+      </c>
+      <c r="O50" t="s">
         <v>198</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
         <v>199</v>
       </c>
-      <c r="P50" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q50">
-        <v>0.85050115800000003</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B51">
         <v>100044</v>
@@ -4903,7 +4747,7 @@
         <v>2463</v>
       </c>
       <c r="D51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E51">
         <v>501592</v>
@@ -4912,39 +4756,36 @@
         <v>572218</v>
       </c>
       <c r="G51" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" t="s">
         <v>19</v>
       </c>
-      <c r="H51" t="s">
-        <v>20</v>
-      </c>
       <c r="J51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M51">
         <v>4</v>
       </c>
       <c r="N51" t="s">
+        <v>201</v>
+      </c>
+      <c r="O51" t="s">
         <v>202</v>
       </c>
-      <c r="O51" t="s">
-        <v>203</v>
-      </c>
       <c r="P51" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q51">
-        <v>0.90848769600000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B52">
         <v>100044</v>
@@ -4953,7 +4794,7 @@
         <v>2473</v>
       </c>
       <c r="D52" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E52">
         <v>501592</v>
@@ -4962,39 +4803,36 @@
         <v>572218</v>
       </c>
       <c r="G52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" t="s">
         <v>19</v>
       </c>
-      <c r="H52" t="s">
-        <v>20</v>
-      </c>
       <c r="J52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M52">
         <v>4</v>
       </c>
       <c r="N52" t="s">
+        <v>204</v>
+      </c>
+      <c r="O52" t="s">
         <v>205</v>
       </c>
-      <c r="O52" t="s">
+      <c r="P52" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>206</v>
-      </c>
-      <c r="P52" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q52">
-        <v>0.78874694999999995</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>207</v>
       </c>
       <c r="B53">
         <v>100045</v>
@@ -5003,7 +4841,7 @@
         <v>2492</v>
       </c>
       <c r="D53" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E53">
         <v>501592</v>
@@ -5012,39 +4850,36 @@
         <v>572218</v>
       </c>
       <c r="G53" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" t="s">
         <v>19</v>
       </c>
-      <c r="H53" t="s">
-        <v>20</v>
-      </c>
       <c r="J53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M53">
         <v>4</v>
       </c>
       <c r="N53" t="s">
+        <v>208</v>
+      </c>
+      <c r="O53" t="s">
         <v>209</v>
       </c>
-      <c r="O53" t="s">
+      <c r="P53" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>210</v>
-      </c>
-      <c r="P53" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q53">
-        <v>0.944179616</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>211</v>
       </c>
       <c r="B54">
         <v>100051</v>
@@ -5053,7 +4888,7 @@
         <v>1558</v>
       </c>
       <c r="D54" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E54">
         <v>501626</v>
@@ -5062,39 +4897,36 @@
         <v>572252</v>
       </c>
       <c r="G54" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" t="s">
         <v>19</v>
       </c>
-      <c r="H54" t="s">
-        <v>20</v>
-      </c>
       <c r="J54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M54">
         <v>4</v>
       </c>
       <c r="N54" t="s">
+        <v>212</v>
+      </c>
+      <c r="O54" t="s">
         <v>213</v>
       </c>
-      <c r="O54" t="s">
-        <v>214</v>
-      </c>
       <c r="P54" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q54">
-        <v>0.74705960900000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B55">
         <v>100051</v>
@@ -5103,7 +4935,7 @@
         <v>20117</v>
       </c>
       <c r="D55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E55">
         <v>501626</v>
@@ -5112,36 +4944,33 @@
         <v>572252</v>
       </c>
       <c r="G55" t="s">
+        <v>215</v>
+      </c>
+      <c r="H55" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55" t="s">
+        <v>22</v>
+      </c>
+      <c r="M55">
+        <v>4</v>
+      </c>
+      <c r="O55" t="s">
         <v>216</v>
       </c>
-      <c r="H55" t="s">
-        <v>20</v>
-      </c>
-      <c r="J55" t="s">
-        <v>21</v>
-      </c>
-      <c r="K55" t="s">
-        <v>32</v>
-      </c>
-      <c r="L55" t="s">
-        <v>23</v>
-      </c>
-      <c r="M55">
-        <v>4</v>
-      </c>
-      <c r="O55" t="s">
-        <v>217</v>
-      </c>
       <c r="P55" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q55">
-        <v>0.81357387999999997</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B56">
         <v>100051</v>
@@ -5150,7 +4979,7 @@
         <v>1628</v>
       </c>
       <c r="D56" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E56">
         <v>460900</v>
@@ -5159,39 +4988,36 @@
         <v>526259</v>
       </c>
       <c r="G56" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" t="s">
         <v>19</v>
       </c>
-      <c r="H56" t="s">
-        <v>20</v>
-      </c>
       <c r="J56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M56">
         <v>4</v>
       </c>
       <c r="N56" t="s">
+        <v>218</v>
+      </c>
+      <c r="O56" t="s">
         <v>219</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>220</v>
       </c>
-      <c r="P56" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q56">
-        <v>0.97701413000000004</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B57">
         <v>100051</v>
@@ -5200,7 +5026,7 @@
         <v>1618</v>
       </c>
       <c r="D57" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E57">
         <v>395015</v>
@@ -5209,39 +5035,36 @@
         <v>453225</v>
       </c>
       <c r="G57" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" t="s">
         <v>19</v>
       </c>
-      <c r="H57" t="s">
-        <v>20</v>
-      </c>
       <c r="J57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M57">
         <v>4</v>
       </c>
       <c r="N57" t="s">
+        <v>222</v>
+      </c>
+      <c r="O57" t="s">
         <v>223</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
         <v>224</v>
       </c>
-      <c r="P57" t="s">
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>225</v>
-      </c>
-      <c r="Q57">
-        <v>0.99467187700000004</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>226</v>
       </c>
       <c r="B58">
         <v>100052</v>
@@ -5250,7 +5073,7 @@
         <v>1289</v>
       </c>
       <c r="D58" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E58">
         <v>501630</v>
@@ -5259,42 +5082,39 @@
         <v>572256</v>
       </c>
       <c r="G58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I58" t="s">
+        <v>227</v>
+      </c>
+      <c r="J58" t="s">
+        <v>20</v>
+      </c>
+      <c r="K58" t="s">
+        <v>21</v>
+      </c>
+      <c r="L58" t="s">
+        <v>22</v>
+      </c>
+      <c r="M58">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
         <v>228</v>
       </c>
-      <c r="J58" t="s">
-        <v>21</v>
-      </c>
-      <c r="K58" t="s">
-        <v>22</v>
-      </c>
-      <c r="L58" t="s">
-        <v>23</v>
-      </c>
-      <c r="M58">
-        <v>4</v>
-      </c>
-      <c r="N58" t="s">
+      <c r="O58" t="s">
         <v>229</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>230</v>
       </c>
-      <c r="P58" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q58">
-        <v>0.99985969600000002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B59">
         <v>100052</v>
@@ -5303,7 +5123,7 @@
         <v>1299</v>
       </c>
       <c r="D59" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E59">
         <v>501630</v>
@@ -5312,42 +5132,39 @@
         <v>572256</v>
       </c>
       <c r="G59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M59">
         <v>4</v>
       </c>
       <c r="N59" t="s">
+        <v>232</v>
+      </c>
+      <c r="O59" t="s">
         <v>233</v>
       </c>
-      <c r="O59" t="s">
-        <v>234</v>
-      </c>
       <c r="P59" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q59">
-        <v>0.99985969600000002</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B60">
         <v>100052</v>
@@ -5356,7 +5173,7 @@
         <v>1309</v>
       </c>
       <c r="D60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E60">
         <v>501630</v>
@@ -5365,42 +5182,39 @@
         <v>572256</v>
       </c>
       <c r="G60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I60" t="s">
+        <v>235</v>
+      </c>
+      <c r="J60" t="s">
+        <v>20</v>
+      </c>
+      <c r="K60" t="s">
+        <v>21</v>
+      </c>
+      <c r="L60" t="s">
+        <v>22</v>
+      </c>
+      <c r="M60">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
         <v>236</v>
       </c>
-      <c r="J60" t="s">
-        <v>21</v>
-      </c>
-      <c r="K60" t="s">
-        <v>22</v>
-      </c>
-      <c r="L60" t="s">
-        <v>23</v>
-      </c>
-      <c r="M60">
-        <v>4</v>
-      </c>
-      <c r="N60" t="s">
+      <c r="O60" t="s">
         <v>237</v>
       </c>
-      <c r="O60" t="s">
-        <v>238</v>
-      </c>
       <c r="P60" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q60">
-        <v>0.99985969600000002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B61">
         <v>100052</v>
@@ -5409,7 +5223,7 @@
         <v>1349</v>
       </c>
       <c r="D61" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E61">
         <v>501628</v>
@@ -5418,39 +5232,36 @@
         <v>572254</v>
       </c>
       <c r="G61" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" t="s">
         <v>19</v>
       </c>
-      <c r="H61" t="s">
-        <v>20</v>
-      </c>
       <c r="J61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M61">
         <v>4</v>
       </c>
       <c r="N61" t="s">
+        <v>239</v>
+      </c>
+      <c r="O61" t="s">
         <v>240</v>
       </c>
-      <c r="O61" t="s">
-        <v>241</v>
-      </c>
       <c r="P61" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q61">
-        <v>0.99985969600000002</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B62">
         <v>100052</v>
@@ -5459,7 +5270,7 @@
         <v>1359</v>
       </c>
       <c r="D62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E62">
         <v>501628</v>
@@ -5468,39 +5279,36 @@
         <v>572254</v>
       </c>
       <c r="G62" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" t="s">
         <v>19</v>
       </c>
-      <c r="H62" t="s">
-        <v>20</v>
-      </c>
       <c r="J62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M62">
         <v>4</v>
       </c>
       <c r="N62" t="s">
+        <v>242</v>
+      </c>
+      <c r="O62" t="s">
         <v>243</v>
       </c>
-      <c r="O62" t="s">
-        <v>244</v>
-      </c>
       <c r="P62" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B63">
         <v>100052</v>
@@ -5509,7 +5317,7 @@
         <v>1478</v>
       </c>
       <c r="D63" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E63">
         <v>501626</v>
@@ -5518,39 +5326,36 @@
         <v>572252</v>
       </c>
       <c r="G63" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" t="s">
         <v>19</v>
       </c>
-      <c r="H63" t="s">
-        <v>20</v>
-      </c>
       <c r="J63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M63">
         <v>4</v>
       </c>
       <c r="N63" t="s">
+        <v>245</v>
+      </c>
+      <c r="O63" t="s">
         <v>246</v>
       </c>
-      <c r="O63" t="s">
-        <v>247</v>
-      </c>
       <c r="P63" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q63">
-        <v>0.99685856299999998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B64">
         <v>100052</v>
@@ -5559,7 +5364,7 @@
         <v>1488</v>
       </c>
       <c r="D64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E64">
         <v>501626</v>
@@ -5568,42 +5373,39 @@
         <v>572252</v>
       </c>
       <c r="G64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I64" t="s">
+        <v>248</v>
+      </c>
+      <c r="J64" t="s">
+        <v>20</v>
+      </c>
+      <c r="K64" t="s">
+        <v>21</v>
+      </c>
+      <c r="L64" t="s">
+        <v>22</v>
+      </c>
+      <c r="M64">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
         <v>249</v>
       </c>
-      <c r="J64" t="s">
-        <v>21</v>
-      </c>
-      <c r="K64" t="s">
-        <v>22</v>
-      </c>
-      <c r="L64" t="s">
-        <v>23</v>
-      </c>
-      <c r="M64">
-        <v>4</v>
-      </c>
-      <c r="N64" t="s">
+      <c r="O64" t="s">
         <v>250</v>
       </c>
-      <c r="O64" t="s">
-        <v>251</v>
-      </c>
       <c r="P64" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q64">
-        <v>0.99857642999999996</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B65">
         <v>100052</v>
@@ -5612,7 +5414,7 @@
         <v>1528</v>
       </c>
       <c r="D65" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E65">
         <v>501626</v>
@@ -5621,42 +5423,39 @@
         <v>572252</v>
       </c>
       <c r="G65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I65" t="s">
+        <v>252</v>
+      </c>
+      <c r="J65" t="s">
+        <v>20</v>
+      </c>
+      <c r="K65" t="s">
+        <v>21</v>
+      </c>
+      <c r="L65" t="s">
+        <v>22</v>
+      </c>
+      <c r="M65">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
         <v>253</v>
       </c>
-      <c r="J65" t="s">
-        <v>21</v>
-      </c>
-      <c r="K65" t="s">
-        <v>22</v>
-      </c>
-      <c r="L65" t="s">
-        <v>23</v>
-      </c>
-      <c r="M65">
-        <v>4</v>
-      </c>
-      <c r="N65" t="s">
+      <c r="O65" t="s">
         <v>254</v>
       </c>
-      <c r="O65" t="s">
-        <v>255</v>
-      </c>
       <c r="P65" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q65">
-        <v>0.75804094799999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B66">
         <v>100052</v>
@@ -5665,7 +5464,7 @@
         <v>1458</v>
       </c>
       <c r="D66" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E66">
         <v>501526</v>
@@ -5674,42 +5473,39 @@
         <v>572135</v>
       </c>
       <c r="G66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I66" t="s">
+        <v>256</v>
+      </c>
+      <c r="J66" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66" t="s">
+        <v>21</v>
+      </c>
+      <c r="L66" t="s">
+        <v>22</v>
+      </c>
+      <c r="M66">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
         <v>257</v>
       </c>
-      <c r="J66" t="s">
-        <v>21</v>
-      </c>
-      <c r="K66" t="s">
-        <v>22</v>
-      </c>
-      <c r="L66" t="s">
-        <v>23</v>
-      </c>
-      <c r="M66">
-        <v>4</v>
-      </c>
-      <c r="N66" t="s">
+      <c r="O66" t="s">
         <v>258</v>
       </c>
-      <c r="O66" t="s">
-        <v>259</v>
-      </c>
       <c r="P66" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q66">
-        <v>0.98385479600000003</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B67">
         <v>100052</v>
@@ -5718,7 +5514,7 @@
         <v>1438</v>
       </c>
       <c r="D67" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E67">
         <v>498739</v>
@@ -5727,42 +5523,39 @@
         <v>568482</v>
       </c>
       <c r="G67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H67" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I67" t="s">
+        <v>260</v>
+      </c>
+      <c r="J67" t="s">
+        <v>20</v>
+      </c>
+      <c r="K67" t="s">
+        <v>21</v>
+      </c>
+      <c r="L67" t="s">
+        <v>22</v>
+      </c>
+      <c r="M67">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
         <v>261</v>
       </c>
-      <c r="J67" t="s">
-        <v>21</v>
-      </c>
-      <c r="K67" t="s">
-        <v>22</v>
-      </c>
-      <c r="L67" t="s">
-        <v>23</v>
-      </c>
-      <c r="M67">
-        <v>4</v>
-      </c>
-      <c r="N67" t="s">
+      <c r="O67" t="s">
         <v>262</v>
       </c>
-      <c r="O67" t="s">
-        <v>263</v>
-      </c>
       <c r="P67" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q67">
-        <v>0.85681825199999995</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B68">
         <v>100052</v>
@@ -5771,7 +5564,7 @@
         <v>1548</v>
       </c>
       <c r="D68" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E68">
         <v>498739</v>
@@ -5780,39 +5573,36 @@
         <v>568482</v>
       </c>
       <c r="G68" t="s">
+        <v>18</v>
+      </c>
+      <c r="H68" t="s">
         <v>19</v>
       </c>
-      <c r="H68" t="s">
-        <v>20</v>
-      </c>
       <c r="J68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M68">
         <v>4</v>
       </c>
       <c r="N68" t="s">
+        <v>264</v>
+      </c>
+      <c r="O68" t="s">
         <v>265</v>
       </c>
-      <c r="O68" t="s">
-        <v>266</v>
-      </c>
       <c r="P68" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q68">
-        <v>0.97224037799999996</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B69">
         <v>100052</v>
@@ -5821,7 +5611,7 @@
         <v>1408</v>
       </c>
       <c r="D69" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E69">
         <v>490275</v>
@@ -5830,39 +5620,36 @@
         <v>558765</v>
       </c>
       <c r="G69" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" t="s">
         <v>19</v>
       </c>
-      <c r="H69" t="s">
-        <v>20</v>
-      </c>
       <c r="J69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M69">
         <v>4</v>
       </c>
       <c r="N69" t="s">
+        <v>267</v>
+      </c>
+      <c r="O69" t="s">
         <v>268</v>
       </c>
-      <c r="O69" t="s">
+      <c r="P69" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>269</v>
-      </c>
-      <c r="P69" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q69">
-        <v>0.98252019899999998</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>270</v>
       </c>
       <c r="B70">
         <v>100053</v>
@@ -5871,7 +5658,7 @@
         <v>1110</v>
       </c>
       <c r="D70" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E70">
         <v>501639</v>
@@ -5880,39 +5667,36 @@
         <v>572265</v>
       </c>
       <c r="G70" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" t="s">
         <v>19</v>
       </c>
-      <c r="H70" t="s">
-        <v>20</v>
-      </c>
       <c r="J70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M70">
         <v>4</v>
       </c>
       <c r="N70" t="s">
+        <v>271</v>
+      </c>
+      <c r="O70" t="s">
         <v>272</v>
       </c>
-      <c r="O70" t="s">
-        <v>273</v>
-      </c>
       <c r="P70" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q70">
-        <v>0.98252019899999998</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B71">
         <v>100053</v>
@@ -5921,7 +5705,7 @@
         <v>2237</v>
       </c>
       <c r="D71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E71">
         <v>501604</v>
@@ -5930,39 +5714,36 @@
         <v>572230</v>
       </c>
       <c r="G71" t="s">
+        <v>18</v>
+      </c>
+      <c r="H71" t="s">
         <v>19</v>
       </c>
-      <c r="H71" t="s">
-        <v>20</v>
-      </c>
       <c r="J71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M71">
         <v>4</v>
       </c>
       <c r="N71" t="s">
+        <v>274</v>
+      </c>
+      <c r="O71" t="s">
         <v>275</v>
       </c>
-      <c r="O71" t="s">
-        <v>276</v>
-      </c>
       <c r="P71" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q71">
-        <v>0.99077074700000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B72">
         <v>100053</v>
@@ -5971,7 +5752,7 @@
         <v>1120</v>
       </c>
       <c r="D72" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E72">
         <v>428783</v>
@@ -5980,39 +5761,36 @@
         <v>487215</v>
       </c>
       <c r="G72" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" t="s">
         <v>19</v>
       </c>
-      <c r="H72" t="s">
-        <v>20</v>
-      </c>
       <c r="J72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M72">
         <v>4</v>
       </c>
       <c r="N72" t="s">
+        <v>277</v>
+      </c>
+      <c r="O72" t="s">
         <v>278</v>
       </c>
-      <c r="O72" t="s">
+      <c r="P72" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>279</v>
-      </c>
-      <c r="P72" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q72">
-        <v>0.99917186499999999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>280</v>
       </c>
       <c r="B73">
         <v>100054</v>
@@ -6021,7 +5799,7 @@
         <v>864</v>
       </c>
       <c r="D73" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E73">
         <v>501649</v>
@@ -6030,42 +5808,39 @@
         <v>572275</v>
       </c>
       <c r="G73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I73" t="s">
+        <v>281</v>
+      </c>
+      <c r="J73" t="s">
+        <v>20</v>
+      </c>
+      <c r="K73" t="s">
+        <v>21</v>
+      </c>
+      <c r="L73" t="s">
+        <v>22</v>
+      </c>
+      <c r="M73">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
         <v>282</v>
       </c>
-      <c r="J73" t="s">
-        <v>21</v>
-      </c>
-      <c r="K73" t="s">
-        <v>22</v>
-      </c>
-      <c r="L73" t="s">
-        <v>23</v>
-      </c>
-      <c r="M73">
-        <v>4</v>
-      </c>
-      <c r="N73" t="s">
+      <c r="O73" t="s">
         <v>283</v>
       </c>
-      <c r="O73" t="s">
+      <c r="P73" t="s">
         <v>284</v>
       </c>
-      <c r="P73" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q73">
-        <v>0.99769012000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B74">
         <v>100054</v>
@@ -6074,7 +5849,7 @@
         <v>884</v>
       </c>
       <c r="D74" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E74">
         <v>501645</v>
@@ -6083,42 +5858,39 @@
         <v>572271</v>
       </c>
       <c r="G74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H74" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I74" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M74">
         <v>4</v>
       </c>
       <c r="N74" t="s">
+        <v>286</v>
+      </c>
+      <c r="O74" t="s">
         <v>287</v>
       </c>
-      <c r="O74" t="s">
-        <v>288</v>
-      </c>
       <c r="P74" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q74">
-        <v>0.99647871700000001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B75">
         <v>100054</v>
@@ -6127,7 +5899,7 @@
         <v>904</v>
       </c>
       <c r="D75" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E75">
         <v>501645</v>
@@ -6136,42 +5908,39 @@
         <v>572271</v>
       </c>
       <c r="G75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H75" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I75" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M75">
         <v>4</v>
       </c>
       <c r="N75" t="s">
+        <v>289</v>
+      </c>
+      <c r="O75" t="s">
         <v>290</v>
       </c>
-      <c r="O75" t="s">
-        <v>291</v>
-      </c>
       <c r="P75" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q75">
-        <v>0.97785595199999997</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B76">
         <v>100054</v>
@@ -6180,7 +5949,7 @@
         <v>1070</v>
       </c>
       <c r="D76" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E76">
         <v>501640</v>
@@ -6189,42 +5958,39 @@
         <v>572266</v>
       </c>
       <c r="G76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I76" t="s">
+        <v>292</v>
+      </c>
+      <c r="J76" t="s">
+        <v>20</v>
+      </c>
+      <c r="K76" t="s">
+        <v>21</v>
+      </c>
+      <c r="L76" t="s">
+        <v>22</v>
+      </c>
+      <c r="M76">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
         <v>293</v>
       </c>
-      <c r="J76" t="s">
-        <v>21</v>
-      </c>
-      <c r="K76" t="s">
-        <v>22</v>
-      </c>
-      <c r="L76" t="s">
-        <v>23</v>
-      </c>
-      <c r="M76">
-        <v>4</v>
-      </c>
-      <c r="N76" t="s">
+      <c r="O76" t="s">
         <v>294</v>
       </c>
-      <c r="O76" t="s">
+      <c r="P76" t="s">
         <v>295</v>
       </c>
-      <c r="P76" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B77">
         <v>100054</v>
@@ -6233,7 +5999,7 @@
         <v>1090</v>
       </c>
       <c r="D77" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E77">
         <v>501424</v>
@@ -6242,42 +6008,39 @@
         <v>572023</v>
       </c>
       <c r="G77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H77" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I77" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M77">
         <v>4</v>
       </c>
       <c r="N77" t="s">
+        <v>297</v>
+      </c>
+      <c r="O77" t="s">
         <v>298</v>
       </c>
-      <c r="O77" t="s">
-        <v>299</v>
-      </c>
       <c r="P77" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q77">
-        <v>0.98081944300000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B78">
         <v>100054</v>
@@ -6286,7 +6049,7 @@
         <v>1080</v>
       </c>
       <c r="D78" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E78">
         <v>498752</v>
@@ -6295,42 +6058,39 @@
         <v>568495</v>
       </c>
       <c r="G78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I78" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M78">
         <v>4</v>
       </c>
       <c r="N78" t="s">
+        <v>300</v>
+      </c>
+      <c r="O78" t="s">
         <v>301</v>
       </c>
-      <c r="O78" t="s">
-        <v>302</v>
-      </c>
       <c r="P78" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q78">
-        <v>0.96048565699999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B79">
         <v>100054</v>
@@ -6339,7 +6099,7 @@
         <v>874</v>
       </c>
       <c r="D79" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E79">
         <v>480084</v>
@@ -6348,42 +6108,39 @@
         <v>547065</v>
       </c>
       <c r="G79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H79" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I79" t="s">
+        <v>303</v>
+      </c>
+      <c r="J79" t="s">
+        <v>20</v>
+      </c>
+      <c r="K79" t="s">
+        <v>21</v>
+      </c>
+      <c r="L79" t="s">
+        <v>22</v>
+      </c>
+      <c r="M79">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
         <v>304</v>
       </c>
-      <c r="J79" t="s">
-        <v>21</v>
-      </c>
-      <c r="K79" t="s">
-        <v>22</v>
-      </c>
-      <c r="L79" t="s">
-        <v>23</v>
-      </c>
-      <c r="M79">
-        <v>4</v>
-      </c>
-      <c r="N79" t="s">
+      <c r="O79" t="s">
         <v>305</v>
       </c>
-      <c r="O79" t="s">
+      <c r="P79" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>306</v>
-      </c>
-      <c r="P79" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q79">
-        <v>0.99777567099999998</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>307</v>
       </c>
       <c r="B80">
         <v>100056</v>
@@ -6392,7 +6149,7 @@
         <v>2129</v>
       </c>
       <c r="D80" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E80">
         <v>501609</v>
@@ -6401,36 +6158,33 @@
         <v>572235</v>
       </c>
       <c r="G80" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80" t="s">
         <v>19</v>
       </c>
-      <c r="H80" t="s">
-        <v>20</v>
-      </c>
       <c r="J80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M80">
         <v>4</v>
       </c>
       <c r="N80" t="s">
+        <v>308</v>
+      </c>
+      <c r="O80" t="s">
         <v>309</v>
       </c>
-      <c r="O80" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q80">
-        <v>0.99715970300000001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B81">
         <v>100056</v>
@@ -6439,7 +6193,7 @@
         <v>2139</v>
       </c>
       <c r="D81" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E81">
         <v>456560</v>
@@ -6448,42 +6202,39 @@
         <v>519823</v>
       </c>
       <c r="G81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H81" t="s">
+        <v>26</v>
+      </c>
+      <c r="I81" t="s">
         <v>27</v>
       </c>
-      <c r="I81" t="s">
-        <v>28</v>
-      </c>
       <c r="J81" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L81" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M81">
         <v>4</v>
       </c>
       <c r="N81" t="s">
+        <v>311</v>
+      </c>
+      <c r="O81" t="s">
         <v>312</v>
       </c>
-      <c r="O81" t="s">
+      <c r="P81" t="s">
         <v>313</v>
       </c>
-      <c r="P81" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q81">
-        <v>0.99515780799999998</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B82">
         <v>100056</v>
@@ -6492,7 +6243,7 @@
         <v>2149</v>
       </c>
       <c r="D82" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E82">
         <v>452365</v>
@@ -6501,39 +6252,36 @@
         <v>515019</v>
       </c>
       <c r="G82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H82" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M82">
         <v>4</v>
       </c>
       <c r="N82" t="s">
+        <v>315</v>
+      </c>
+      <c r="O82" t="s">
         <v>316</v>
       </c>
-      <c r="O82" t="s">
-        <v>317</v>
-      </c>
       <c r="P82" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q82">
-        <v>0.98239016099999998</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B83">
         <v>100056</v>
@@ -6542,7 +6290,7 @@
         <v>2159</v>
       </c>
       <c r="D83" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E83">
         <v>452365</v>
@@ -6551,39 +6299,36 @@
         <v>515019</v>
       </c>
       <c r="G83" t="s">
+        <v>18</v>
+      </c>
+      <c r="H83" t="s">
         <v>19</v>
       </c>
-      <c r="H83" t="s">
-        <v>20</v>
-      </c>
       <c r="J83" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M83">
         <v>4</v>
       </c>
       <c r="N83" t="s">
+        <v>318</v>
+      </c>
+      <c r="O83" t="s">
         <v>319</v>
       </c>
-      <c r="O83" t="s">
+      <c r="P83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>320</v>
-      </c>
-      <c r="P83" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q83">
-        <v>0.99727263099999996</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>321</v>
       </c>
       <c r="B84">
         <v>100057</v>
@@ -6592,7 +6337,7 @@
         <v>1160</v>
       </c>
       <c r="D84" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E84">
         <v>501636</v>
@@ -6601,42 +6346,39 @@
         <v>572262</v>
       </c>
       <c r="G84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H84" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I84" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J84" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M84">
         <v>4</v>
       </c>
       <c r="N84" t="s">
+        <v>322</v>
+      </c>
+      <c r="O84" t="s">
         <v>323</v>
       </c>
-      <c r="O84" t="s">
-        <v>324</v>
-      </c>
       <c r="P84" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q84">
-        <v>0.999277949</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B85">
         <v>100057</v>
@@ -6645,7 +6387,7 @@
         <v>1190</v>
       </c>
       <c r="D85" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E85">
         <v>501633</v>
@@ -6654,39 +6396,36 @@
         <v>572259</v>
       </c>
       <c r="G85" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" t="s">
         <v>19</v>
       </c>
-      <c r="H85" t="s">
-        <v>20</v>
-      </c>
       <c r="J85" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M85">
         <v>4</v>
       </c>
       <c r="N85" t="s">
+        <v>325</v>
+      </c>
+      <c r="O85" t="s">
         <v>326</v>
       </c>
-      <c r="O85" t="s">
-        <v>327</v>
-      </c>
       <c r="P85" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q85">
-        <v>0.968746471</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B86">
         <v>100057</v>
@@ -6695,7 +6434,7 @@
         <v>1200</v>
       </c>
       <c r="D86" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E86">
         <v>501632</v>
@@ -6704,39 +6443,36 @@
         <v>572258</v>
       </c>
       <c r="G86" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86" t="s">
         <v>19</v>
       </c>
-      <c r="H86" t="s">
-        <v>20</v>
-      </c>
       <c r="J86" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L86" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M86">
         <v>4</v>
       </c>
       <c r="N86" t="s">
+        <v>328</v>
+      </c>
+      <c r="O86" t="s">
         <v>329</v>
       </c>
-      <c r="O86" t="s">
-        <v>330</v>
-      </c>
       <c r="P86" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q86">
-        <v>0.92935189900000004</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B87">
         <v>100057</v>
@@ -6745,7 +6481,7 @@
         <v>1210</v>
       </c>
       <c r="D87" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E87">
         <v>501632</v>
@@ -6754,39 +6490,36 @@
         <v>572258</v>
       </c>
       <c r="G87" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" t="s">
         <v>19</v>
       </c>
-      <c r="H87" t="s">
-        <v>20</v>
-      </c>
       <c r="J87" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M87">
         <v>4</v>
       </c>
       <c r="N87" t="s">
+        <v>331</v>
+      </c>
+      <c r="O87" t="s">
         <v>332</v>
       </c>
-      <c r="O87" t="s">
-        <v>333</v>
-      </c>
       <c r="P87" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q87">
-        <v>0.51308076400000002</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B88">
         <v>100057</v>
@@ -6795,7 +6528,7 @@
         <v>1220</v>
       </c>
       <c r="D88" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E88">
         <v>501632</v>
@@ -6804,39 +6537,36 @@
         <v>572258</v>
       </c>
       <c r="G88" t="s">
+        <v>18</v>
+      </c>
+      <c r="H88" t="s">
         <v>19</v>
       </c>
-      <c r="H88" t="s">
-        <v>20</v>
-      </c>
       <c r="J88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L88" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M88">
         <v>4</v>
       </c>
       <c r="N88" t="s">
+        <v>334</v>
+      </c>
+      <c r="O88" t="s">
         <v>335</v>
       </c>
-      <c r="O88" t="s">
-        <v>336</v>
-      </c>
       <c r="P88" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q88">
-        <v>0.91431885899999998</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B89">
         <v>100057</v>
@@ -6845,7 +6575,7 @@
         <v>1170</v>
       </c>
       <c r="D89" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E89">
         <v>498749</v>
@@ -6854,39 +6584,36 @@
         <v>568492</v>
       </c>
       <c r="G89" t="s">
+        <v>18</v>
+      </c>
+      <c r="H89" t="s">
         <v>19</v>
       </c>
-      <c r="H89" t="s">
-        <v>20</v>
-      </c>
       <c r="J89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L89" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M89">
         <v>4</v>
       </c>
       <c r="N89" t="s">
+        <v>337</v>
+      </c>
+      <c r="O89" t="s">
         <v>338</v>
       </c>
-      <c r="O89" t="s">
+      <c r="P89" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>339</v>
-      </c>
-      <c r="P89" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q89">
-        <v>0.950017624</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>340</v>
       </c>
       <c r="B90">
         <v>100058</v>
@@ -6895,7 +6622,7 @@
         <v>20116</v>
       </c>
       <c r="D90" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E90">
         <v>501632</v>
@@ -6904,39 +6631,36 @@
         <v>572258</v>
       </c>
       <c r="G90" t="s">
+        <v>18</v>
+      </c>
+      <c r="H90" t="s">
         <v>19</v>
       </c>
-      <c r="H90" t="s">
-        <v>20</v>
-      </c>
       <c r="J90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M90">
         <v>4</v>
       </c>
       <c r="N90" t="s">
+        <v>341</v>
+      </c>
+      <c r="O90" t="s">
         <v>342</v>
       </c>
-      <c r="O90" t="s">
+      <c r="P90" t="s">
         <v>343</v>
       </c>
-      <c r="P90" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q90">
-        <v>0.99987338400000003</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B91">
         <v>100058</v>
@@ -6945,7 +6669,7 @@
         <v>20160</v>
       </c>
       <c r="D91" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E91">
         <v>499746</v>
@@ -6954,36 +6678,33 @@
         <v>570058</v>
       </c>
       <c r="G91" t="s">
+        <v>18</v>
+      </c>
+      <c r="H91" t="s">
         <v>19</v>
       </c>
-      <c r="H91" t="s">
-        <v>20</v>
-      </c>
       <c r="J91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M91">
         <v>4</v>
       </c>
       <c r="N91" t="s">
+        <v>345</v>
+      </c>
+      <c r="O91" t="s">
         <v>346</v>
       </c>
-      <c r="O91" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q91">
-        <v>0.99659848799999995</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B92">
         <v>100058</v>
@@ -6992,7 +6713,7 @@
         <v>1269</v>
       </c>
       <c r="D92" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E92">
         <v>464090</v>
@@ -7001,42 +6722,39 @@
         <v>531742</v>
       </c>
       <c r="G92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H92" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I92" t="s">
+        <v>348</v>
+      </c>
+      <c r="J92" t="s">
+        <v>20</v>
+      </c>
+      <c r="K92" t="s">
+        <v>21</v>
+      </c>
+      <c r="L92" t="s">
+        <v>22</v>
+      </c>
+      <c r="M92">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
         <v>349</v>
       </c>
-      <c r="J92" t="s">
-        <v>21</v>
-      </c>
-      <c r="K92" t="s">
-        <v>22</v>
-      </c>
-      <c r="L92" t="s">
-        <v>23</v>
-      </c>
-      <c r="M92">
-        <v>4</v>
-      </c>
-      <c r="N92" t="s">
+      <c r="O92" t="s">
         <v>350</v>
       </c>
-      <c r="O92" t="s">
-        <v>351</v>
-      </c>
       <c r="P92" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q92">
-        <v>0.95276210299999997</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B93">
         <v>100058</v>
@@ -7045,7 +6763,7 @@
         <v>1279</v>
       </c>
       <c r="D93" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E93">
         <v>464090</v>
@@ -7054,42 +6772,39 @@
         <v>531742</v>
       </c>
       <c r="G93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H93" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I93" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J93" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L93" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M93">
         <v>4</v>
       </c>
       <c r="N93" t="s">
+        <v>352</v>
+      </c>
+      <c r="O93" t="s">
         <v>353</v>
       </c>
-      <c r="O93" t="s">
-        <v>354</v>
-      </c>
       <c r="P93" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q93">
-        <v>0.83709016700000005</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B94">
         <v>100058</v>
@@ -7098,7 +6813,7 @@
         <v>1249</v>
       </c>
       <c r="D94" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E94">
         <v>463710</v>
@@ -7107,39 +6822,36 @@
         <v>531342</v>
       </c>
       <c r="G94" t="s">
+        <v>18</v>
+      </c>
+      <c r="H94" t="s">
         <v>19</v>
       </c>
-      <c r="H94" t="s">
-        <v>20</v>
-      </c>
       <c r="J94" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L94" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M94">
         <v>4</v>
       </c>
       <c r="N94" t="s">
+        <v>355</v>
+      </c>
+      <c r="O94" t="s">
         <v>356</v>
       </c>
-      <c r="O94" t="s">
-        <v>357</v>
-      </c>
       <c r="P94" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q94">
-        <v>0.211225674</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B95">
         <v>100058</v>
@@ -7148,7 +6860,7 @@
         <v>1259</v>
       </c>
       <c r="D95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E95">
         <v>461174</v>
@@ -7157,39 +6869,36 @@
         <v>527972</v>
       </c>
       <c r="G95" t="s">
+        <v>18</v>
+      </c>
+      <c r="H95" t="s">
         <v>19</v>
       </c>
-      <c r="H95" t="s">
-        <v>20</v>
-      </c>
       <c r="J95" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K95" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L95" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M95">
         <v>4</v>
       </c>
       <c r="N95" t="s">
+        <v>358</v>
+      </c>
+      <c r="O95" t="s">
         <v>359</v>
       </c>
-      <c r="O95" t="s">
+      <c r="P95" t="s">
         <v>360</v>
       </c>
-      <c r="P95" t="s">
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>361</v>
-      </c>
-      <c r="Q95">
-        <v>0.65451384700000004</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>362</v>
       </c>
       <c r="B96">
         <v>100055</v>
@@ -7198,7 +6907,7 @@
         <v>1050</v>
       </c>
       <c r="D96" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E96">
         <v>498754</v>
@@ -7207,42 +6916,39 @@
         <v>568497</v>
       </c>
       <c r="G96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H96" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I96" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J96" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K96" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L96" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M96">
         <v>4</v>
       </c>
       <c r="N96" t="s">
+        <v>363</v>
+      </c>
+      <c r="O96" t="s">
         <v>364</v>
       </c>
-      <c r="O96" t="s">
-        <v>365</v>
-      </c>
       <c r="P96" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B97">
         <v>100055</v>
@@ -7251,7 +6957,7 @@
         <v>1060</v>
       </c>
       <c r="D97" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E97">
         <v>498754</v>
@@ -7260,42 +6966,39 @@
         <v>568497</v>
       </c>
       <c r="G97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H97" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J97" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K97" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L97" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M97">
         <v>4</v>
       </c>
       <c r="N97" t="s">
+        <v>366</v>
+      </c>
+      <c r="O97" t="s">
         <v>367</v>
       </c>
-      <c r="O97" t="s">
-        <v>368</v>
-      </c>
       <c r="P97" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q97">
-        <v>0.90736868800000003</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B98">
         <v>100055</v>
@@ -7304,7 +7007,7 @@
         <v>2267</v>
       </c>
       <c r="D98" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E98">
         <v>498717</v>
@@ -7313,39 +7016,36 @@
         <v>568460</v>
       </c>
       <c r="G98" t="s">
+        <v>18</v>
+      </c>
+      <c r="H98" t="s">
         <v>19</v>
       </c>
-      <c r="H98" t="s">
-        <v>20</v>
-      </c>
       <c r="J98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K98" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L98" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M98">
         <v>4</v>
       </c>
       <c r="N98" t="s">
+        <v>369</v>
+      </c>
+      <c r="O98" t="s">
         <v>370</v>
       </c>
-      <c r="O98" t="s">
-        <v>371</v>
-      </c>
       <c r="P98" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q98">
-        <v>0.99960646500000006</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B99">
         <v>100055</v>
@@ -7354,7 +7054,7 @@
         <v>2277</v>
       </c>
       <c r="D99" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E99">
         <v>498717</v>
@@ -7363,42 +7063,39 @@
         <v>568460</v>
       </c>
       <c r="G99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H99" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I99" t="s">
+        <v>372</v>
+      </c>
+      <c r="J99" t="s">
+        <v>20</v>
+      </c>
+      <c r="K99" t="s">
+        <v>21</v>
+      </c>
+      <c r="L99" t="s">
+        <v>22</v>
+      </c>
+      <c r="M99">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
         <v>373</v>
       </c>
-      <c r="J99" t="s">
-        <v>21</v>
-      </c>
-      <c r="K99" t="s">
-        <v>22</v>
-      </c>
-      <c r="L99" t="s">
-        <v>23</v>
-      </c>
-      <c r="M99">
-        <v>4</v>
-      </c>
-      <c r="N99" t="s">
+      <c r="O99" t="s">
         <v>374</v>
       </c>
-      <c r="O99" t="s">
+      <c r="P99" t="s">
         <v>375</v>
       </c>
-      <c r="P99" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q99">
-        <v>0.99928479299999995</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B100">
         <v>100055</v>
@@ -7407,7 +7104,7 @@
         <v>1727</v>
       </c>
       <c r="D100" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E100">
         <v>498413</v>
@@ -7416,39 +7113,36 @@
         <v>529843</v>
       </c>
       <c r="G100" t="s">
+        <v>18</v>
+      </c>
+      <c r="H100" t="s">
         <v>19</v>
       </c>
-      <c r="H100" t="s">
-        <v>20</v>
-      </c>
       <c r="J100" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L100" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M100">
         <v>3</v>
       </c>
       <c r="N100" t="s">
+        <v>377</v>
+      </c>
+      <c r="O100" t="s">
         <v>378</v>
       </c>
-      <c r="O100" t="s">
-        <v>379</v>
-      </c>
       <c r="P100" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q100">
-        <v>0.93183630299999998</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B101">
         <v>100055</v>
@@ -7457,7 +7151,7 @@
         <v>1737</v>
       </c>
       <c r="D101" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E101">
         <v>498413</v>
@@ -7466,42 +7160,39 @@
         <v>529843</v>
       </c>
       <c r="G101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H101" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I101" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J101" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L101" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M101">
         <v>3</v>
       </c>
       <c r="N101" t="s">
+        <v>381</v>
+      </c>
+      <c r="O101" t="s">
         <v>382</v>
       </c>
-      <c r="O101" t="s">
+      <c r="P101" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>383</v>
-      </c>
-      <c r="P101" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q101">
-        <v>0.228287986</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>384</v>
       </c>
       <c r="B102">
         <v>100060</v>
@@ -7510,7 +7201,7 @@
         <v>1920</v>
       </c>
       <c r="D102" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E102">
         <v>501619</v>
@@ -7519,39 +7210,36 @@
         <v>572245</v>
       </c>
       <c r="G102" t="s">
+        <v>18</v>
+      </c>
+      <c r="H102" t="s">
         <v>19</v>
       </c>
-      <c r="H102" t="s">
-        <v>20</v>
-      </c>
       <c r="J102" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L102" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M102">
         <v>4</v>
       </c>
       <c r="N102" t="s">
+        <v>385</v>
+      </c>
+      <c r="O102" t="s">
         <v>386</v>
       </c>
-      <c r="O102" t="s">
-        <v>387</v>
-      </c>
       <c r="P102" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q102">
-        <v>0.99786122200000005</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B103">
         <v>100060</v>
@@ -7560,7 +7248,7 @@
         <v>1930</v>
       </c>
       <c r="D103" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E103">
         <v>501619</v>
@@ -7569,39 +7257,36 @@
         <v>572245</v>
       </c>
       <c r="G103" t="s">
+        <v>18</v>
+      </c>
+      <c r="H103" t="s">
         <v>19</v>
       </c>
-      <c r="H103" t="s">
-        <v>20</v>
-      </c>
       <c r="J103" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K103" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L103" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M103">
         <v>4</v>
       </c>
       <c r="N103" t="s">
+        <v>388</v>
+      </c>
+      <c r="O103" t="s">
         <v>389</v>
       </c>
-      <c r="O103" t="s">
-        <v>390</v>
-      </c>
       <c r="P103" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q103">
-        <v>0.99657453399999996</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B104">
         <v>100060</v>
@@ -7610,7 +7295,7 @@
         <v>1940</v>
       </c>
       <c r="D104" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E104">
         <v>501619</v>
@@ -7619,39 +7304,36 @@
         <v>572245</v>
       </c>
       <c r="G104" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" t="s">
         <v>19</v>
       </c>
-      <c r="H104" t="s">
-        <v>20</v>
-      </c>
       <c r="J104" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K104" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L104" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M104">
         <v>4</v>
       </c>
       <c r="N104" t="s">
+        <v>391</v>
+      </c>
+      <c r="O104" t="s">
         <v>392</v>
       </c>
-      <c r="O104" t="s">
-        <v>393</v>
-      </c>
       <c r="P104" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q104">
-        <v>0.99670799399999999</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B105">
         <v>100060</v>
@@ -7660,7 +7342,7 @@
         <v>1950</v>
       </c>
       <c r="D105" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E105">
         <v>501618</v>
@@ -7669,39 +7351,36 @@
         <v>572244</v>
       </c>
       <c r="G105" t="s">
+        <v>18</v>
+      </c>
+      <c r="H105" t="s">
         <v>19</v>
       </c>
-      <c r="H105" t="s">
-        <v>20</v>
-      </c>
       <c r="J105" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K105" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L105" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M105">
         <v>4</v>
       </c>
       <c r="N105" t="s">
+        <v>394</v>
+      </c>
+      <c r="O105" t="s">
         <v>395</v>
       </c>
-      <c r="O105" t="s">
-        <v>396</v>
-      </c>
       <c r="P105" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q105">
-        <v>0.92198081600000004</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B106">
         <v>100060</v>
@@ -7710,7 +7389,7 @@
         <v>1960</v>
       </c>
       <c r="D106" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E106">
         <v>501618</v>
@@ -7719,39 +7398,36 @@
         <v>572244</v>
       </c>
       <c r="G106" t="s">
+        <v>18</v>
+      </c>
+      <c r="H106" t="s">
         <v>19</v>
       </c>
-      <c r="H106" t="s">
-        <v>20</v>
-      </c>
       <c r="J106" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K106" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L106" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M106">
         <v>4</v>
       </c>
       <c r="N106" t="s">
+        <v>397</v>
+      </c>
+      <c r="O106" t="s">
         <v>398</v>
       </c>
-      <c r="O106" t="s">
-        <v>399</v>
-      </c>
       <c r="P106" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q106">
-        <v>0.92299031899999995</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B107">
         <v>100060</v>
@@ -7760,7 +7436,7 @@
         <v>1970</v>
       </c>
       <c r="D107" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E107">
         <v>501618</v>
@@ -7769,39 +7445,36 @@
         <v>572244</v>
       </c>
       <c r="G107" t="s">
+        <v>18</v>
+      </c>
+      <c r="H107" t="s">
         <v>19</v>
       </c>
-      <c r="H107" t="s">
-        <v>20</v>
-      </c>
       <c r="J107" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K107" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L107" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M107">
         <v>4</v>
       </c>
       <c r="N107" t="s">
+        <v>400</v>
+      </c>
+      <c r="O107" t="s">
         <v>401</v>
       </c>
-      <c r="O107" t="s">
-        <v>402</v>
-      </c>
       <c r="P107" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q107">
-        <v>0.99847376799999998</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B108">
         <v>100060</v>
@@ -7810,7 +7483,7 @@
         <v>1980</v>
       </c>
       <c r="D108" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E108">
         <v>501617</v>
@@ -7819,39 +7492,36 @@
         <v>572243</v>
       </c>
       <c r="G108" t="s">
+        <v>18</v>
+      </c>
+      <c r="H108" t="s">
         <v>19</v>
       </c>
-      <c r="H108" t="s">
-        <v>20</v>
-      </c>
       <c r="J108" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K108" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M108">
         <v>4</v>
       </c>
       <c r="N108" t="s">
+        <v>403</v>
+      </c>
+      <c r="O108" t="s">
         <v>404</v>
       </c>
-      <c r="O108" t="s">
-        <v>405</v>
-      </c>
       <c r="P108" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q108">
-        <v>0.98012476800000004</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B109">
         <v>100060</v>
@@ -7860,7 +7530,7 @@
         <v>1990</v>
       </c>
       <c r="D109" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E109">
         <v>501617</v>
@@ -7869,39 +7539,36 @@
         <v>572243</v>
       </c>
       <c r="G109" t="s">
+        <v>18</v>
+      </c>
+      <c r="H109" t="s">
         <v>19</v>
       </c>
-      <c r="H109" t="s">
-        <v>20</v>
-      </c>
       <c r="J109" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K109" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M109">
         <v>4</v>
       </c>
       <c r="N109" t="s">
+        <v>406</v>
+      </c>
+      <c r="O109" t="s">
         <v>407</v>
       </c>
-      <c r="O109" t="s">
-        <v>408</v>
-      </c>
       <c r="P109" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q109">
-        <v>0.97719891999999997</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B110">
         <v>100060</v>
@@ -7910,7 +7577,7 @@
         <v>2000</v>
       </c>
       <c r="D110" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E110">
         <v>501617</v>
@@ -7919,39 +7586,36 @@
         <v>572243</v>
       </c>
       <c r="G110" t="s">
+        <v>18</v>
+      </c>
+      <c r="H110" t="s">
         <v>19</v>
       </c>
-      <c r="H110" t="s">
-        <v>20</v>
-      </c>
       <c r="J110" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K110" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L110" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M110">
         <v>4</v>
       </c>
       <c r="N110" t="s">
+        <v>409</v>
+      </c>
+      <c r="O110" t="s">
         <v>410</v>
       </c>
-      <c r="O110" t="s">
-        <v>411</v>
-      </c>
       <c r="P110" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q110">
-        <v>0.98393350300000004</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B111">
         <v>100060</v>
@@ -7960,7 +7624,7 @@
         <v>2010</v>
       </c>
       <c r="D111" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E111">
         <v>501617</v>
@@ -7969,39 +7633,36 @@
         <v>572243</v>
       </c>
       <c r="G111" t="s">
+        <v>18</v>
+      </c>
+      <c r="H111" t="s">
         <v>19</v>
       </c>
-      <c r="H111" t="s">
-        <v>20</v>
-      </c>
       <c r="J111" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K111" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L111" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M111">
         <v>4</v>
       </c>
       <c r="N111" t="s">
+        <v>412</v>
+      </c>
+      <c r="O111" t="s">
         <v>413</v>
       </c>
-      <c r="O111" t="s">
-        <v>414</v>
-      </c>
       <c r="P111" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q111">
-        <v>0.95680011499999995</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B112">
         <v>100060</v>
@@ -8010,7 +7671,7 @@
         <v>2020</v>
       </c>
       <c r="D112" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E112">
         <v>501616</v>
@@ -8019,39 +7680,36 @@
         <v>572242</v>
       </c>
       <c r="G112" t="s">
+        <v>18</v>
+      </c>
+      <c r="H112" t="s">
         <v>19</v>
       </c>
-      <c r="H112" t="s">
-        <v>20</v>
-      </c>
       <c r="J112" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K112" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L112" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M112">
         <v>4</v>
       </c>
       <c r="N112" t="s">
+        <v>415</v>
+      </c>
+      <c r="O112" t="s">
         <v>416</v>
       </c>
-      <c r="O112" t="s">
-        <v>417</v>
-      </c>
       <c r="P112" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q112">
-        <v>0.97233961700000004</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B113">
         <v>100060</v>
@@ -8060,7 +7718,7 @@
         <v>2030</v>
       </c>
       <c r="D113" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E113">
         <v>501616</v>
@@ -8069,39 +7727,36 @@
         <v>572242</v>
       </c>
       <c r="G113" t="s">
+        <v>18</v>
+      </c>
+      <c r="H113" t="s">
         <v>19</v>
       </c>
-      <c r="H113" t="s">
-        <v>20</v>
-      </c>
       <c r="J113" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K113" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L113" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M113">
         <v>4</v>
       </c>
       <c r="N113" t="s">
+        <v>418</v>
+      </c>
+      <c r="O113" t="s">
         <v>419</v>
       </c>
-      <c r="O113" t="s">
-        <v>420</v>
-      </c>
       <c r="P113" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q113">
-        <v>0.980443018</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B114">
         <v>100060</v>
@@ -8110,7 +7765,7 @@
         <v>2040</v>
       </c>
       <c r="D114" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E114">
         <v>501616</v>
@@ -8119,39 +7774,36 @@
         <v>572242</v>
       </c>
       <c r="G114" t="s">
+        <v>18</v>
+      </c>
+      <c r="H114" t="s">
         <v>19</v>
       </c>
-      <c r="H114" t="s">
-        <v>20</v>
-      </c>
       <c r="J114" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K114" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L114" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M114">
         <v>4</v>
       </c>
       <c r="N114" t="s">
+        <v>421</v>
+      </c>
+      <c r="O114" t="s">
         <v>422</v>
       </c>
-      <c r="O114" t="s">
-        <v>423</v>
-      </c>
       <c r="P114" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q114">
-        <v>0.97485139799999998</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B115">
         <v>100060</v>
@@ -8160,7 +7812,7 @@
         <v>2050</v>
       </c>
       <c r="D115" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E115">
         <v>501616</v>
@@ -8169,39 +7821,36 @@
         <v>572242</v>
       </c>
       <c r="G115" t="s">
+        <v>18</v>
+      </c>
+      <c r="H115" t="s">
         <v>19</v>
       </c>
-      <c r="H115" t="s">
-        <v>20</v>
-      </c>
       <c r="J115" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K115" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L115" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M115">
         <v>4</v>
       </c>
       <c r="N115" t="s">
+        <v>424</v>
+      </c>
+      <c r="O115" t="s">
         <v>425</v>
       </c>
-      <c r="O115" t="s">
-        <v>426</v>
-      </c>
       <c r="P115" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q115">
-        <v>0.974841132</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B116">
         <v>100060</v>
@@ -8210,7 +7859,7 @@
         <v>2060</v>
       </c>
       <c r="D116" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E116">
         <v>501615</v>
@@ -8219,39 +7868,36 @@
         <v>572241</v>
       </c>
       <c r="G116" t="s">
+        <v>18</v>
+      </c>
+      <c r="H116" t="s">
         <v>19</v>
       </c>
-      <c r="H116" t="s">
-        <v>20</v>
-      </c>
       <c r="J116" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K116" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L116" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M116">
         <v>4</v>
       </c>
       <c r="N116" t="s">
+        <v>427</v>
+      </c>
+      <c r="O116" t="s">
         <v>428</v>
       </c>
-      <c r="O116" t="s">
-        <v>429</v>
-      </c>
       <c r="P116" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q116">
-        <v>0.97060121899999996</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B117">
         <v>100060</v>
@@ -8260,7 +7906,7 @@
         <v>2070</v>
       </c>
       <c r="D117" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E117">
         <v>501614</v>
@@ -8269,39 +7915,36 @@
         <v>572240</v>
       </c>
       <c r="G117" t="s">
+        <v>18</v>
+      </c>
+      <c r="H117" t="s">
         <v>19</v>
       </c>
-      <c r="H117" t="s">
-        <v>20</v>
-      </c>
       <c r="J117" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K117" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L117" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M117">
         <v>4</v>
       </c>
       <c r="N117" t="s">
+        <v>430</v>
+      </c>
+      <c r="O117" t="s">
         <v>431</v>
       </c>
-      <c r="O117" t="s">
-        <v>432</v>
-      </c>
       <c r="P117" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q117">
-        <v>0.96005790099999999</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B118">
         <v>100060</v>
@@ -8310,7 +7953,7 @@
         <v>2080</v>
       </c>
       <c r="D118" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E118">
         <v>501613</v>
@@ -8319,39 +7962,36 @@
         <v>572239</v>
       </c>
       <c r="G118" t="s">
+        <v>18</v>
+      </c>
+      <c r="H118" t="s">
         <v>19</v>
       </c>
-      <c r="H118" t="s">
-        <v>20</v>
-      </c>
       <c r="J118" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K118" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L118" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M118">
         <v>4</v>
       </c>
       <c r="N118" t="s">
+        <v>433</v>
+      </c>
+      <c r="O118" t="s">
         <v>434</v>
       </c>
-      <c r="O118" t="s">
-        <v>435</v>
-      </c>
       <c r="P118" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q118">
-        <v>0.964718725</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B119">
         <v>100060</v>
@@ -8360,7 +8000,7 @@
         <v>2090</v>
       </c>
       <c r="D119" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E119">
         <v>501612</v>
@@ -8369,39 +8009,36 @@
         <v>572238</v>
       </c>
       <c r="G119" t="s">
+        <v>18</v>
+      </c>
+      <c r="H119" t="s">
         <v>19</v>
       </c>
-      <c r="H119" t="s">
-        <v>20</v>
-      </c>
       <c r="J119" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K119" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L119" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M119">
         <v>4</v>
       </c>
       <c r="N119" t="s">
+        <v>436</v>
+      </c>
+      <c r="O119" t="s">
         <v>437</v>
       </c>
-      <c r="O119" t="s">
-        <v>438</v>
-      </c>
       <c r="P119" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q119">
-        <v>0.98523730200000004</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B120">
         <v>100060</v>
@@ -8410,7 +8047,7 @@
         <v>2100</v>
       </c>
       <c r="D120" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E120">
         <v>501612</v>
@@ -8419,39 +8056,36 @@
         <v>572238</v>
       </c>
       <c r="G120" t="s">
+        <v>18</v>
+      </c>
+      <c r="H120" t="s">
         <v>19</v>
       </c>
-      <c r="H120" t="s">
-        <v>20</v>
-      </c>
       <c r="J120" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K120" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L120" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M120">
         <v>4</v>
       </c>
       <c r="N120" t="s">
+        <v>439</v>
+      </c>
+      <c r="O120" t="s">
         <v>440</v>
       </c>
-      <c r="O120" t="s">
-        <v>441</v>
-      </c>
       <c r="P120" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q120">
-        <v>0.97504645400000001</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B121">
         <v>100060</v>
@@ -8460,7 +8094,7 @@
         <v>20127</v>
       </c>
       <c r="D121" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E121">
         <v>401576</v>
@@ -8469,36 +8103,33 @@
         <v>401576</v>
       </c>
       <c r="G121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H121" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J121" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L121" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M121">
         <v>1</v>
       </c>
       <c r="N121" t="s">
+        <v>442</v>
+      </c>
+      <c r="O121" t="s">
         <v>443</v>
       </c>
-      <c r="O121" t="s">
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>444</v>
-      </c>
-      <c r="Q121">
-        <v>0.96591986299999999</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>445</v>
       </c>
       <c r="B122">
         <v>100061</v>
@@ -8507,7 +8138,7 @@
         <v>2110</v>
       </c>
       <c r="D122" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E122">
         <v>501611</v>
@@ -8516,39 +8147,36 @@
         <v>572237</v>
       </c>
       <c r="G122" t="s">
+        <v>18</v>
+      </c>
+      <c r="H122" t="s">
         <v>19</v>
       </c>
-      <c r="H122" t="s">
-        <v>20</v>
-      </c>
       <c r="J122" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K122" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L122" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M122">
         <v>4</v>
       </c>
       <c r="N122" t="s">
+        <v>446</v>
+      </c>
+      <c r="O122" t="s">
         <v>447</v>
       </c>
-      <c r="O122" t="s">
-        <v>448</v>
-      </c>
       <c r="P122" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q122">
-        <v>0.95884991900000005</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B123">
         <v>100061</v>
@@ -8557,7 +8185,7 @@
         <v>1031</v>
       </c>
       <c r="D123" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E123">
         <v>498754</v>
@@ -8566,39 +8194,36 @@
         <v>568497</v>
       </c>
       <c r="G123" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123" t="s">
         <v>19</v>
       </c>
-      <c r="H123" t="s">
-        <v>20</v>
-      </c>
       <c r="J123" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K123" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L123" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M123">
         <v>4</v>
       </c>
       <c r="N123" t="s">
+        <v>449</v>
+      </c>
+      <c r="O123" t="s">
         <v>450</v>
       </c>
-      <c r="O123" t="s">
+      <c r="P123" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>451</v>
-      </c>
-      <c r="P123" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q123">
-        <v>0.96933506300000005</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>452</v>
       </c>
       <c r="B124">
         <v>100066</v>
@@ -8607,7 +8232,7 @@
         <v>699</v>
       </c>
       <c r="D124" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E124">
         <v>501656</v>
@@ -8616,42 +8241,39 @@
         <v>572282</v>
       </c>
       <c r="G124" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H124" t="s">
+        <v>26</v>
+      </c>
+      <c r="I124" t="s">
         <v>27</v>
       </c>
-      <c r="I124" t="s">
-        <v>28</v>
-      </c>
       <c r="J124" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K124" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L124" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M124">
         <v>4</v>
       </c>
       <c r="N124" t="s">
+        <v>453</v>
+      </c>
+      <c r="O124" t="s">
         <v>454</v>
       </c>
-      <c r="O124" t="s">
+      <c r="P124" t="s">
         <v>455</v>
       </c>
-      <c r="P124" t="s">
-        <v>456</v>
-      </c>
-      <c r="Q124">
-        <v>0.96451340200000002</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B125">
         <v>100066</v>
@@ -8660,7 +8282,7 @@
         <v>709</v>
       </c>
       <c r="D125" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E125">
         <v>500277</v>
@@ -8669,42 +8291,39 @@
         <v>570800</v>
       </c>
       <c r="G125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H125" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I125" t="s">
+        <v>457</v>
+      </c>
+      <c r="J125" t="s">
+        <v>20</v>
+      </c>
+      <c r="K125" t="s">
+        <v>21</v>
+      </c>
+      <c r="L125" t="s">
+        <v>22</v>
+      </c>
+      <c r="M125">
+        <v>4</v>
+      </c>
+      <c r="N125" t="s">
         <v>458</v>
       </c>
-      <c r="J125" t="s">
-        <v>21</v>
-      </c>
-      <c r="K125" t="s">
-        <v>22</v>
-      </c>
-      <c r="L125" t="s">
-        <v>23</v>
-      </c>
-      <c r="M125">
-        <v>4</v>
-      </c>
-      <c r="N125" t="s">
+      <c r="O125" t="s">
         <v>459</v>
       </c>
-      <c r="O125" t="s">
-        <v>460</v>
-      </c>
       <c r="P125" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q125">
-        <v>0.97175102599999996</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B126">
         <v>100066</v>
@@ -8713,7 +8332,7 @@
         <v>728</v>
       </c>
       <c r="D126" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E126">
         <v>500277</v>
@@ -8722,39 +8341,36 @@
         <v>570800</v>
       </c>
       <c r="G126" t="s">
+        <v>18</v>
+      </c>
+      <c r="H126" t="s">
         <v>19</v>
       </c>
-      <c r="H126" t="s">
-        <v>20</v>
-      </c>
       <c r="J126" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K126" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L126" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M126">
         <v>4</v>
       </c>
       <c r="N126" t="s">
+        <v>461</v>
+      </c>
+      <c r="O126" t="s">
         <v>462</v>
       </c>
-      <c r="O126" t="s">
+      <c r="P126" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>463</v>
-      </c>
-      <c r="P126" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q126">
-        <v>0.99386085300000004</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>464</v>
       </c>
       <c r="B127">
         <v>100074</v>
@@ -8763,7 +8379,7 @@
         <v>134</v>
       </c>
       <c r="D127" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E127">
         <v>501656</v>
@@ -8772,36 +8388,33 @@
         <v>566685</v>
       </c>
       <c r="G127" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H127" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J127" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K127" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L127" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M127">
         <v>4</v>
       </c>
       <c r="N127" t="s">
+        <v>465</v>
+      </c>
+      <c r="O127" t="s">
         <v>466</v>
       </c>
-      <c r="O127" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q127">
-        <v>0.99603042900000005</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B128">
         <v>100074</v>
@@ -8810,7 +8423,7 @@
         <v>135</v>
       </c>
       <c r="D128" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E128">
         <v>501656</v>
@@ -8819,36 +8432,33 @@
         <v>566685</v>
       </c>
       <c r="G128" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H128" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J128" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K128" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L128" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M128">
         <v>4</v>
       </c>
       <c r="N128" t="s">
+        <v>468</v>
+      </c>
+      <c r="O128" t="s">
         <v>469</v>
       </c>
-      <c r="O128" t="s">
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>470</v>
-      </c>
-      <c r="Q128">
-        <v>0.82950007400000003</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>471</v>
       </c>
       <c r="B129">
         <v>100075</v>
@@ -8857,7 +8467,7 @@
         <v>137</v>
       </c>
       <c r="D129" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E129">
         <v>501656</v>
@@ -8866,36 +8476,33 @@
         <v>566685</v>
       </c>
       <c r="G129" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H129" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J129" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K129" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L129" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M129">
         <v>4</v>
       </c>
       <c r="N129" t="s">
+        <v>472</v>
+      </c>
+      <c r="O129" t="s">
         <v>473</v>
       </c>
-      <c r="O129" t="s">
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>474</v>
-      </c>
-      <c r="Q129">
-        <v>0.99409697399999997</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>475</v>
       </c>
       <c r="B130">
         <v>100076</v>
@@ -8904,7 +8511,7 @@
         <v>136</v>
       </c>
       <c r="D130" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E130">
         <v>501656</v>
@@ -8913,31 +8520,28 @@
         <v>566685</v>
       </c>
       <c r="G130" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H130" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J130" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K130" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L130" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M130">
         <v>4</v>
       </c>
       <c r="N130" t="s">
+        <v>476</v>
+      </c>
+      <c r="O130" t="s">
         <v>477</v>
-      </c>
-      <c r="O130" t="s">
-        <v>478</v>
-      </c>
-      <c r="Q130">
-        <v>0.99400457900000005</v>
       </c>
     </row>
   </sheetData>
